--- a/biology/Zoologie/Brun_noir_du_pays/Brun_noir_du_pays.xlsx
+++ b/biology/Zoologie/Brun_noir_du_pays/Brun_noir_du_pays.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le brun noir du pays ou brun noir du Jura (en allemand : Jura Schaf) est une race ovine originaire de Suisse[1], surtout présente dans les cantons du Plateau et aussi de l'Est de la Suisse. Elle représente 10 % du cheptel suisse. Elle ne doit pas être confondue avec le Braunes Bergschaf originaire du Tyrol et élevé aussi dans l'Engadine qui, lui, a les oreilles pendantes.
+Le brun noir du pays ou brun noir du Jura (en allemand : Jura Schaf) est une race ovine originaire de Suisse, surtout présente dans les cantons du Plateau et aussi de l'Est de la Suisse. Elle représente 10 % du cheptel suisse. Elle ne doit pas être confondue avec le Braunes Bergschaf originaire du Tyrol et élevé aussi dans l'Engadine qui, lui, a les oreilles pendantes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une race suisse très ancienne mentionnée au XIVe siècle et issue de moutons locaux, élevée à l'origine pour la finesse de sa laine foncée[2]. Elle est uniformisée au début du XXe siècle grâce à une sélection rigoureuse et sans croisements avec d'autres races. La première description officielle est publiée en 1925. Plus tard, elle est améliorée avec le mouton à tête noire allemand pour ses qualités bouchères et avec quelques moutons d'Oxford[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une race suisse très ancienne mentionnée au XIVe siècle et issue de moutons locaux, élevée à l'origine pour la finesse de sa laine foncée. Elle est uniformisée au début du XXe siècle grâce à une sélection rigoureuse et sans croisements avec d'autres races. La première description officielle est publiée en 1925. Plus tard, elle est améliorée avec le mouton à tête noire allemand pour ses qualités bouchères et avec quelques moutons d'Oxford.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un mouton de montagne rustique, sans cornes, à la robe brun foncé tirant sur le noir ou sur le beige. Il est de taille moyenne au corps solide, au dos large et rectiligne. Il a la tête et les pattes glabres de couleur noire. La tête est de longueur moyenne avec un mufle large.
-Les brebis sont très prolifiques (2,2 agneaux par an[4]) et bonnes laitières. Elles atteignent l'âge adulte à dix mois. Cette race est très facile à alper[5].
+Les brebis sont très prolifiques (2,2 agneaux par an) et bonnes laitières. Elles atteignent l'âge adulte à dix mois. Cette race est très facile à alper.
 </t>
         </is>
       </c>
